--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>60.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.87</v>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.38</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1599,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.87</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1615,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.38</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.68</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.51</v>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.87</v>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.38</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1856,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1872,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1317</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.13</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>63.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>3.1583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -640,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>012420</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>广发价值领先混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.4429</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -678,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>014734</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>广发睿合混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>46.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.1831</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -716,74 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>014735</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>广发睿合混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>46.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,102 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>83.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2939</t>
+          <t>2.6768</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +928,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1018,36 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1196</t>
+          <t>0.6214</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1056,36 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5767</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1094,36 +1034,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.3038</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1132,36 +1072,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1180,22 +1120,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1234,7 +1174,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1264,36 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6214</t>
+          <t>3.1196</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1302,36 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4672</t>
+          <t>0.5767</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1340,36 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3038</t>
+          <t>0.1015</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1378,36 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1426,22 +1366,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1459,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,7 +1420,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1520,26 +1460,102 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.88</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6768</t>
+          <t>3.2939</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1590,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1604,36 +1620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.04</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>56.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1583</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1642,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012420</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4429</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014734</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发睿合混合A</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.64</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1831</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1718,36 +1734,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014735</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿合混合C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.64</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1761,144 +1815,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.13</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.83</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.68</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.87</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.38</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -894,252 +1271,6 @@
       </c>
       <c r="H2" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3038</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1305,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1204,36 +1335,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1196</t>
+          <t>0.6214</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1242,36 +1373,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5767</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1280,36 +1411,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.3038</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1318,36 +1449,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1366,22 +1497,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1394,6 +1525,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
+++ b/数据整理/stocks/港股/00670-中国东方航空股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.78</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.83</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.68</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.87</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.38</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.59</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0057</t>
+          <t>3.3946</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +832,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3873</t>
+          <t>0.6020</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012528</t>
+          <t>014734</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发鑫睿一年持有期混合A</t>
+          <t>广发睿合混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3703</t>
+          <t>0.4005</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +908,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3572</t>
+          <t>0.3810</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014734</t>
+          <t>012528</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿合混合A</t>
+          <t>广发鑫睿一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>95.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3153</t>
+          <t>0.3667</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012529</t>
+          <t>014735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发鑫睿一年持有期混合C</t>
+          <t>广发睿合混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2417</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014735</t>
+          <t>012529</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发睿合混合C</t>
+          <t>广发鑫睿一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>95.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0778</t>
+          <t>0.1795</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1060,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -977,6 +1088,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,252 +1742,6 @@
       </c>
       <c r="H2" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3038</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1776,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1581,36 +1806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1196</t>
+          <t>0.6214</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1619,36 +1844,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5767</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1657,36 +1882,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.3038</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1695,36 +1920,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1743,22 +1968,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1771,6 +1996,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2184,98 +2655,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1317</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>